--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2201.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2201.xlsx
@@ -354,7 +354,7 @@
         <v>1.717065894803945</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>1.719099841509623</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2201.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2201.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.028956945653057</v>
+        <v>0.850754976272583</v>
       </c>
       <c r="B1">
-        <v>1.717065894803945</v>
+        <v>1.566083669662476</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>7.160388946533203</v>
       </c>
       <c r="D1">
-        <v>1.719099841509623</v>
+        <v>2.683520317077637</v>
       </c>
       <c r="E1">
-        <v>1.041361167304559</v>
+        <v>1.574187874794006</v>
       </c>
     </row>
   </sheetData>
